--- a/Modelos/Tentativa 1/Métricas.xlsx
+++ b/Modelos/Tentativa 1/Métricas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Tentativa 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Tentativa 1\Novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F50107-7D14-4D65-B310-BAA3657F04E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA824A9F-0CCF-43FA-B234-9CEBA7ADAD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
+    <t>Classe</t>
+  </si>
+  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -45,9 +48,6 @@
   </si>
   <si>
     <t>F1 Score</t>
-  </si>
-  <si>
-    <t>Classe</t>
   </si>
 </sst>
 </file>
@@ -415,30 +415,30 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -446,16 +446,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.98608964451313752</v>
+        <v>0.98918083462132922</v>
       </c>
       <c r="C2" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="D2" s="2">
         <v>0.61538461538461542</v>
       </c>
       <c r="E2" s="2">
-        <v>0.64</v>
+        <v>0.69565217391304346</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -548,16 +548,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.97990726429675423</v>
+        <v>0.99381761978361671</v>
       </c>
       <c r="C8" s="2">
-        <v>0.5357142857142857</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E8" s="2">
-        <v>0.69767441860465118</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -633,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>0.99845440494590421</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.99227202472952092</v>
+        <v>0.99072642967542501</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D14" s="2">
         <v>0.44444444444444442</v>
       </c>
       <c r="E14" s="2">
-        <v>0.61538461538461531</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -684,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.99845440494590421</v>
+        <v>0.99381761978361671</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.92272024729520863</v>
+        <v>0.89335394126738799</v>
       </c>
       <c r="C22" s="2">
-        <v>0.72</v>
+        <v>0.59398496240601506</v>
       </c>
       <c r="D22" s="2">
-        <v>0.76595744680851063</v>
+        <v>0.84042553191489366</v>
       </c>
       <c r="E22" s="2">
-        <v>0.74226804123711332</v>
+        <v>0.69603524229074887</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -803,16 +803,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>0.97217928902627515</v>
+        <v>0.97063369397217925</v>
       </c>
       <c r="C23" s="2">
-        <v>0.14285714285714279</v>
+        <v>0.125</v>
       </c>
       <c r="D23" s="2">
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="E23" s="2">
-        <v>0.1</v>
+        <v>9.5238095238095247E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -871,16 +871,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>0.99072642967542501</v>
+        <v>0.98763523956723343</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>0.14285714285714279</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>0.97527047913446674</v>
+        <v>0.97990726429675423</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>0.95363214837712518</v>
+        <v>0.94435857805255019</v>
       </c>
       <c r="C29" s="2">
-        <v>0.52173913043478259</v>
+        <v>0.4</v>
       </c>
       <c r="D29" s="2">
-        <v>0.38709677419354838</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="E29" s="2">
-        <v>0.44444444444444442</v>
+        <v>0.3571428571428571</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>0.99845440494590421</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>0.98608964451313752</v>
+        <v>0.98763523956723343</v>
       </c>
       <c r="C34" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D34" s="2">
         <v>0.125</v>
       </c>
       <c r="E34" s="2">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1007,16 +1007,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>0.84853168469860896</v>
+        <v>0.86089644513137553</v>
       </c>
       <c r="C35" s="2">
-        <v>0.82286995515695072</v>
+        <v>0.84579439252336452</v>
       </c>
       <c r="D35" s="2">
-        <v>0.95077720207253891</v>
+        <v>0.93782383419689119</v>
       </c>
       <c r="E35" s="2">
-        <v>0.88221153846153855</v>
+        <v>0.88943488943488946</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1027,13 +1027,13 @@
         <v>0.95363214837712518</v>
       </c>
       <c r="C36" s="2">
-        <v>0.22222222222222221</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="D36" s="2">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E36" s="2">
-        <v>0.1176470588235294</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1058,16 +1058,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>0.98608964451313752</v>
+        <v>0.98763523956723343</v>
       </c>
       <c r="C38" s="2">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D38" s="2">
         <v>0.44444444444444442</v>
       </c>
       <c r="E38" s="2">
-        <v>0.47058823529411759</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
